--- a/resources/cs-obv.xlsx
+++ b/resources/cs-obv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomsr\Documents\Code\production\pypi\rolling-ta\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FFECC5-0864-4C9B-BA07-AD7796B0A80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F613F63-FDB2-4425-9838-BA1685706170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="1395" windowWidth="14430" windowHeight="14265" xr2:uid="{3B693308-AE6C-4B54-AC97-2DC7D55048EB}"/>
+    <workbookView xWindow="29295" yWindow="2820" windowWidth="15615" windowHeight="12960" xr2:uid="{3B693308-AE6C-4B54-AC97-2DC7D55048EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,18 +429,10 @@
       <c r="B1" s="2">
         <v>53.26</v>
       </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
